--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject9.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject9.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -146,7 +146,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="0">
-        <v>0</v>
+        <v>0.74577390259798881</v>
       </c>
       <c r="H1" s="0">
         <v>0</v>
@@ -155,7 +155,7 @@
         <v>0</v>
       </c>
       <c r="J1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1" s="0">
         <v>0</v>
@@ -212,10 +212,10 @@
         <v>0</v>
       </c>
       <c r="AC1" s="0">
-        <v>0</v>
+        <v>0.75428408283830994</v>
       </c>
       <c r="AD1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE1" s="0">
         <v>0</v>
@@ -257,7 +257,7 @@
         <v>0</v>
       </c>
       <c r="AR1" s="0">
-        <v>0</v>
+        <v>0.77499781840047022</v>
       </c>
       <c r="AS1" s="0">
         <v>0</v>
@@ -266,7 +266,7 @@
         <v>0</v>
       </c>
       <c r="AU1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV1" s="0">
         <v>0</v>
@@ -293,7 +293,7 @@
         <v>0</v>
       </c>
       <c r="BD1" s="0">
-        <v>0</v>
+        <v>0.62103322348347645</v>
       </c>
       <c r="BE1" s="0">
         <v>0</v>
@@ -346,7 +346,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="0">
-        <v>0</v>
+        <v>0.79996188694999137</v>
       </c>
       <c r="F2" s="0">
         <v>0</v>
@@ -382,7 +382,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" s="0">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="AJ2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK2" s="0">
         <v>0</v>
@@ -502,7 +502,7 @@
         <v>0</v>
       </c>
       <c r="BE2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF2" s="0">
         <v>0</v>
@@ -517,25 +517,25 @@
         <v>0</v>
       </c>
       <c r="BJ2" s="0">
-        <v>0</v>
+        <v>0.80557186775306744</v>
       </c>
       <c r="BK2" s="0">
         <v>0</v>
       </c>
       <c r="BL2" s="0">
-        <v>0</v>
+        <v>0.83431931677381299</v>
       </c>
       <c r="BM2" s="0">
         <v>0</v>
       </c>
       <c r="BN2" s="0">
-        <v>0</v>
+        <v>0.85040638356827092</v>
       </c>
       <c r="BO2" s="0">
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0</v>
+        <v>0.9083605341823463</v>
       </c>
       <c r="E3" s="0">
         <v>0</v>
@@ -594,13 +594,13 @@
         <v>0</v>
       </c>
       <c r="S3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" s="0">
         <v>0</v>
       </c>
       <c r="U3" s="0">
-        <v>0</v>
+        <v>0.84011664797322305</v>
       </c>
       <c r="V3" s="0">
         <v>0</v>
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="X3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="0">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="AK3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="0">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="AS3" s="0">
-        <v>0</v>
+        <v>0.52590056170155797</v>
       </c>
       <c r="AT3" s="0">
         <v>0</v>
@@ -720,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="BI3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ3" s="0">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>0</v>
+        <v>0.67896022440227821</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -848,16 +848,16 @@
         <v>0</v>
       </c>
       <c r="AI4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="0">
-        <v>0</v>
+        <v>0.93707519355146207</v>
       </c>
       <c r="AK4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4" s="0">
-        <v>0</v>
+        <v>0.76094631797002876</v>
       </c>
       <c r="AM4" s="0">
         <v>0</v>
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="AS4" s="0">
-        <v>0</v>
+        <v>0.72364861745959186</v>
       </c>
       <c r="AT4" s="0">
         <v>0</v>
@@ -887,10 +887,10 @@
         <v>0</v>
       </c>
       <c r="AV4" s="0">
-        <v>0</v>
+        <v>0.90965971526289602</v>
       </c>
       <c r="AW4" s="0">
-        <v>0</v>
+        <v>0.83431418107531896</v>
       </c>
       <c r="AX4" s="0">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="0">
-        <v>0</v>
+        <v>0.52869228884947983</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
@@ -970,19 +970,19 @@
         <v>0</v>
       </c>
       <c r="G5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
       </c>
       <c r="I5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="0">
         <v>0</v>
@@ -1024,10 +1024,10 @@
         <v>0</v>
       </c>
       <c r="Y5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="0">
         <v>0</v>
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="AR5" s="0">
-        <v>0</v>
+        <v>0.84110162148413192</v>
       </c>
       <c r="AS5" s="0">
         <v>0</v>
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="BH5" s="0">
-        <v>0</v>
+        <v>0.96856392596500585</v>
       </c>
       <c r="BI5" s="0">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="0">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0</v>
+        <v>0.55812537442927979</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="0">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="AL6" s="0">
-        <v>1</v>
+        <v>0.97550060328032973</v>
       </c>
       <c r="AM6" s="0">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="AO6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP6" s="0">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="BI6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK6" s="0">
         <v>0</v>
@@ -1364,7 +1364,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0</v>
+        <v>0.98590013770136686</v>
       </c>
       <c r="B7" s="0">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="0">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="0">
-        <v>0</v>
+        <v>0.85011388340740246</v>
       </c>
       <c r="T7" s="0">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y7" s="0">
-        <v>0</v>
+        <v>0.8081901324532299</v>
       </c>
       <c r="Z7" s="0">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="AH7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI7" s="0">
         <v>0</v>
@@ -1484,13 +1484,13 @@
         <v>0</v>
       </c>
       <c r="AO7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP7" s="0">
         <v>0</v>
       </c>
       <c r="AQ7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR7" s="0">
         <v>0</v>
@@ -1544,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="BI7" s="0">
-        <v>0</v>
+        <v>0.5957152641458745</v>
       </c>
       <c r="BJ7" s="0">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>0</v>
+        <v>0.94411554051982138</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" s="0">
         <v>0</v>
@@ -1645,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="Z8" s="0">
-        <v>0</v>
+        <v>0.69716291463110547</v>
       </c>
       <c r="AA8" s="0">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="AI8" s="0">
-        <v>0</v>
+        <v>0.54953507895418108</v>
       </c>
       <c r="AJ8" s="0">
         <v>0</v>
@@ -1684,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="AM8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN8" s="0">
         <v>0</v>
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="AW8" s="0">
-        <v>0</v>
+        <v>0.5753185751939458</v>
       </c>
       <c r="AX8" s="0">
         <v>0</v>
@@ -1744,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="BG8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH8" s="0">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="0">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="M9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="0">
-        <v>0</v>
+        <v>0.92768805610345006</v>
       </c>
       <c r="O9" s="0">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="Q9" s="0">
-        <v>0</v>
+        <v>0.75298802752889193</v>
       </c>
       <c r="R9" s="0">
         <v>0</v>
       </c>
       <c r="S9" s="0">
-        <v>0</v>
+        <v>0.6848507520749163</v>
       </c>
       <c r="T9" s="0">
         <v>0</v>
@@ -1842,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" s="0">
         <v>0</v>
@@ -1929,10 +1929,10 @@
         <v>0</v>
       </c>
       <c r="AZ9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA9" s="0">
-        <v>0</v>
+        <v>0.62792833840542839</v>
       </c>
       <c r="BB9" s="0">
         <v>0</v>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" s="0">
         <v>0</v>
@@ -2012,10 +2012,10 @@
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>1</v>
+        <v>0.85849259101038178</v>
       </c>
       <c r="L10" s="0">
-        <v>0</v>
+        <v>0.62509975164799914</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2069,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="AD10" s="0">
-        <v>0</v>
+        <v>0.96311546545259374</v>
       </c>
       <c r="AE10" s="0">
         <v>0</v>
@@ -2084,10 +2084,10 @@
         <v>0</v>
       </c>
       <c r="AI10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK10" s="0">
         <v>0</v>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="AO10" s="0">
-        <v>0</v>
+        <v>0.91146401800741594</v>
       </c>
       <c r="AP10" s="0">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="AX10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="0">
         <v>0</v>
@@ -2153,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="BF10" s="0">
-        <v>0</v>
+        <v>0.94228433802979339</v>
       </c>
       <c r="BG10" s="0">
         <v>0</v>
@@ -2200,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="0">
         <v>0</v>
@@ -2215,13 +2215,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="0">
-        <v>1</v>
+        <v>0.69938060209630204</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>0</v>
+        <v>0.88428759932769108</v>
       </c>
       <c r="M11" s="0">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="V11" s="0">
-        <v>0</v>
+        <v>0.70183477780704939</v>
       </c>
       <c r="W11" s="0">
         <v>0</v>
@@ -2269,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="AB11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="0">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="AR11" s="0">
-        <v>0</v>
+        <v>0.68444641669118877</v>
       </c>
       <c r="AS11" s="0">
         <v>0</v>
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="BA11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB11" s="0">
         <v>0</v>
@@ -2421,10 +2421,10 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>0</v>
+        <v>0.71418186272317319</v>
       </c>
       <c r="K12" s="0">
-        <v>0</v>
+        <v>0.92940802725473959</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="AA12" s="0">
-        <v>0</v>
+        <v>0.54115295967841337</v>
       </c>
       <c r="AB12" s="0">
         <v>0</v>
@@ -2493,13 +2493,13 @@
         <v>0</v>
       </c>
       <c r="AH12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI12" s="0">
         <v>0</v>
       </c>
       <c r="AJ12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK12" s="0">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="AR12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS12" s="0">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="AY12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ12" s="0">
         <v>0</v>
@@ -2559,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="BD12" s="0">
-        <v>0</v>
+        <v>0.69276693709279347</v>
       </c>
       <c r="BE12" s="0">
         <v>0</v>
@@ -2624,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="0">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="0">
         <v>0</v>
@@ -2672,16 +2672,16 @@
         <v>0</v>
       </c>
       <c r="Y13" s="0">
-        <v>1</v>
+        <v>0.83174544264053796</v>
       </c>
       <c r="Z13" s="0">
         <v>0</v>
       </c>
       <c r="AA13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="0">
-        <v>0</v>
+        <v>0.69178780472669832</v>
       </c>
       <c r="AC13" s="0">
         <v>0</v>
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="AH13" s="0">
-        <v>0</v>
+        <v>0.55654493472613664</v>
       </c>
       <c r="AI13" s="0">
         <v>0</v>
@@ -2830,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="0">
-        <v>0</v>
+        <v>0.7094765640771914</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
@@ -2848,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2890,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="0">
-        <v>0</v>
+        <v>0.60273067793760648</v>
       </c>
       <c r="AD14" s="0">
         <v>0</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="AO14" s="0">
-        <v>0</v>
+        <v>0.83166266072077755</v>
       </c>
       <c r="AP14" s="0">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="AY14" s="0">
-        <v>0</v>
+        <v>0.65574591772715496</v>
       </c>
       <c r="AZ14" s="0">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="BM14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="0">
         <v>0</v>
@@ -3051,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="X15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="0">
         <v>0</v>
@@ -3120,19 +3120,19 @@
         <v>0</v>
       </c>
       <c r="AK15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="0">
         <v>0</v>
       </c>
       <c r="AM15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="0">
-        <v>0</v>
+        <v>0.59416983888959729</v>
       </c>
       <c r="AP15" s="0">
         <v>0</v>
@@ -3174,10 +3174,10 @@
         <v>0</v>
       </c>
       <c r="BC15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE15" s="0">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="BJ15" s="0">
-        <v>0</v>
+        <v>0.69101706406866237</v>
       </c>
       <c r="BK15" s="0">
         <v>0</v>
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="0">
         <v>0</v>
@@ -3257,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="0">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="0">
-        <v>0</v>
+        <v>0.97391847499783291</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3335,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="AN16" s="0">
-        <v>0</v>
+        <v>0.76734553021816376</v>
       </c>
       <c r="AO16" s="0">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="AR16" s="0">
-        <v>0</v>
+        <v>0.67595188483700452</v>
       </c>
       <c r="AS16" s="0">
         <v>0</v>
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="AU16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV16" s="0">
         <v>0</v>
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="BF16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG16" s="0">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="BJ16" s="0">
-        <v>0</v>
+        <v>0.81595119405654626</v>
       </c>
       <c r="BK16" s="0">
         <v>0</v>
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="0">
         <v>0</v>
@@ -3448,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="0">
-        <v>0</v>
+        <v>0.8996017315776863</v>
       </c>
       <c r="J17" s="0">
         <v>0</v>
@@ -3460,13 +3460,13 @@
         <v>0</v>
       </c>
       <c r="M17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="0">
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="0">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>0</v>
+        <v>0.98773297953041994</v>
       </c>
       <c r="S17" s="0">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="U17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" s="0">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="AA17" s="0">
-        <v>0</v>
+        <v>0.53683080853973508</v>
       </c>
       <c r="AB17" s="0">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="AH17" s="0">
-        <v>0</v>
+        <v>0.90394755509541203</v>
       </c>
       <c r="AI17" s="0">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="AP17" s="0">
-        <v>0</v>
+        <v>0.56940644676816332</v>
       </c>
       <c r="AQ17" s="0">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>0</v>
+        <v>0.65911369443665757</v>
       </c>
       <c r="Q18" s="0">
-        <v>0</v>
+        <v>0.7118132930481732</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
@@ -3687,16 +3687,16 @@
         <v>0</v>
       </c>
       <c r="T18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" s="0">
-        <v>0</v>
+        <v>0.88074483029841877</v>
       </c>
       <c r="V18" s="0">
-        <v>1</v>
+        <v>0.92008096902426217</v>
       </c>
       <c r="W18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18" s="0">
         <v>0</v>
@@ -3816,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="BK18" s="0">
-        <v>0</v>
+        <v>0.68979336601706875</v>
       </c>
       <c r="BL18" s="0">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="0">
         <v>0</v>
@@ -3854,13 +3854,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="0">
-        <v>0</v>
+        <v>0.89910690299524765</v>
       </c>
       <c r="H19" s="0">
         <v>0</v>
       </c>
       <c r="I19" s="0">
-        <v>0</v>
+        <v>0.9317695031680171</v>
       </c>
       <c r="J19" s="0">
         <v>0</v>
@@ -3935,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="AH19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI19" s="0">
         <v>0</v>
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="AO19" s="0">
-        <v>0</v>
+        <v>0.70182321925004043</v>
       </c>
       <c r="AP19" s="0">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="BB19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC19" s="0">
         <v>0</v>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="BP19" s="0">
-        <v>0</v>
+        <v>0.53305503086024131</v>
       </c>
     </row>
     <row r="20">
@@ -4063,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="0">
         <v>0</v>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" s="0">
         <v>0</v>
@@ -4102,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>0</v>
+        <v>0.53763579453939303</v>
       </c>
       <c r="V20" s="0">
         <v>0</v>
@@ -4222,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="BI20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ20" s="0">
         <v>0</v>
@@ -4237,13 +4237,13 @@
         <v>0</v>
       </c>
       <c r="BN20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP20" s="0">
-        <v>0</v>
+        <v>0.68193074152656896</v>
       </c>
     </row>
     <row r="21">
@@ -4254,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="0">
-        <v>0</v>
+        <v>0.69032550748650223</v>
       </c>
       <c r="D21" s="0">
         <v>0</v>
@@ -4296,16 +4296,16 @@
         <v>0</v>
       </c>
       <c r="Q21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" s="0">
-        <v>0</v>
+        <v>0.7399904461073683</v>
       </c>
       <c r="S21" s="0">
         <v>0</v>
       </c>
       <c r="T21" s="0">
-        <v>0</v>
+        <v>0.93856198325321216</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
@@ -4314,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4341,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="AF21" s="0">
-        <v>0</v>
+        <v>0.5016534180582054</v>
       </c>
       <c r="AG21" s="0">
         <v>0</v>
@@ -4359,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="AL21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21" s="0">
         <v>0</v>
@@ -4371,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="AP21" s="0">
-        <v>0</v>
+        <v>0.90619916101754394</v>
       </c>
       <c r="AQ21" s="0">
         <v>0</v>
@@ -4419,7 +4419,7 @@
         <v>0</v>
       </c>
       <c r="BF21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG21" s="0">
         <v>0</v>
@@ -4434,7 +4434,7 @@
         <v>0</v>
       </c>
       <c r="BK21" s="0">
-        <v>0</v>
+        <v>0.75004969403549571</v>
       </c>
       <c r="BL21" s="0">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="0">
-        <v>0</v>
+        <v>0.687896984571578</v>
       </c>
       <c r="L22" s="0">
         <v>0</v>
@@ -4505,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="R22" s="0">
-        <v>1</v>
+        <v>0.73601700705599371</v>
       </c>
       <c r="S22" s="0">
         <v>0</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="Y22" s="0">
-        <v>0</v>
+        <v>0.70559958785189791</v>
       </c>
       <c r="Z22" s="0">
         <v>0</v>
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="AG22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH22" s="0">
         <v>0</v>
@@ -4625,10 +4625,10 @@
         <v>0</v>
       </c>
       <c r="BF22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH22" s="0">
         <v>0</v>
@@ -4649,7 +4649,7 @@
         <v>0</v>
       </c>
       <c r="BN22" s="0">
-        <v>0</v>
+        <v>0.57516714060596619</v>
       </c>
       <c r="BO22" s="0">
         <v>0</v>
@@ -4684,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="0">
         <v>0</v>
@@ -4711,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="R23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23" s="0">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" s="0">
         <v>0</v>
@@ -4762,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="AI23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="0">
         <v>0</v>
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="AU23" s="0">
-        <v>0</v>
+        <v>0.86147299450892656</v>
       </c>
       <c r="AV23" s="0">
         <v>0</v>
@@ -4834,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="BG23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH23" s="0">
         <v>0</v>
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="BO23" s="0">
-        <v>0</v>
+        <v>0.84254930563858077</v>
       </c>
       <c r="BP23" s="0">
         <v>0</v>
@@ -4872,7 +4872,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="0">
         <v>0</v>
@@ -4908,7 +4908,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" s="0">
         <v>0</v>
@@ -4938,7 +4938,7 @@
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="0">
         <v>0</v>
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="AB24" s="0">
-        <v>0</v>
+        <v>0.64717134336259319</v>
       </c>
       <c r="AC24" s="0">
         <v>0</v>
@@ -5040,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="BG24" s="0">
-        <v>0</v>
+        <v>0.70119395372055582</v>
       </c>
       <c r="BH24" s="0">
         <v>0</v>
@@ -5084,13 +5084,13 @@
         <v>0</v>
       </c>
       <c r="E25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="0">
         <v>0</v>
       </c>
       <c r="G25" s="0">
-        <v>0</v>
+        <v>0.8188674106293452</v>
       </c>
       <c r="H25" s="0">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="0">
-        <v>1</v>
+        <v>0.96400903027128404</v>
       </c>
       <c r="N25" s="0">
         <v>0</v>
@@ -5135,13 +5135,13 @@
         <v>0</v>
       </c>
       <c r="V25" s="0">
-        <v>0</v>
+        <v>0.60106756965159103</v>
       </c>
       <c r="W25" s="0">
         <v>0</v>
       </c>
       <c r="X25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
@@ -5237,7 +5237,7 @@
         <v>0</v>
       </c>
       <c r="BD25" s="0">
-        <v>0</v>
+        <v>0.82525102572713993</v>
       </c>
       <c r="BE25" s="0">
         <v>0</v>
@@ -5261,13 +5261,13 @@
         <v>0</v>
       </c>
       <c r="BL25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM25" s="0">
         <v>0</v>
       </c>
       <c r="BN25" s="0">
-        <v>0</v>
+        <v>0.71470999761836507</v>
       </c>
       <c r="BO25" s="0">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="0">
         <v>0</v>
@@ -5299,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="0">
-        <v>0</v>
+        <v>0.79471793926032752</v>
       </c>
       <c r="I26" s="0">
         <v>0</v>
@@ -5434,7 +5434,7 @@
         <v>0</v>
       </c>
       <c r="BA26" s="0">
-        <v>1</v>
+        <v>0.89216678358433565</v>
       </c>
       <c r="BB26" s="0">
         <v>0</v>
@@ -5443,7 +5443,7 @@
         <v>0</v>
       </c>
       <c r="BD26" s="0">
-        <v>1</v>
+        <v>0.70752441468651628</v>
       </c>
       <c r="BE26" s="0">
         <v>0</v>
@@ -5467,7 +5467,7 @@
         <v>0</v>
       </c>
       <c r="BL26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM26" s="0">
         <v>0</v>
@@ -5517,10 +5517,10 @@
         <v>0</v>
       </c>
       <c r="L27" s="0">
-        <v>0</v>
+        <v>0.74191197011896293</v>
       </c>
       <c r="M27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" s="0">
         <v>0</v>
@@ -5532,7 +5532,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="0">
-        <v>0</v>
+        <v>0.51550945754499322</v>
       </c>
       <c r="R27" s="0">
         <v>0</v>
@@ -5565,7 +5565,7 @@
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>0</v>
+        <v>0.53555640446823238</v>
       </c>
       <c r="AC27" s="0">
         <v>0</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="AI27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ27" s="0">
         <v>0</v>
@@ -5595,7 +5595,7 @@
         <v>0</v>
       </c>
       <c r="AL27" s="0">
-        <v>0</v>
+        <v>0.61088781655981661</v>
       </c>
       <c r="AM27" s="0">
         <v>0</v>
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="BM27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN27" s="0">
         <v>0</v>
@@ -5720,13 +5720,13 @@
         <v>0</v>
       </c>
       <c r="K28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" s="0">
         <v>0</v>
       </c>
       <c r="M28" s="0">
-        <v>0</v>
+        <v>0.67000969848667014</v>
       </c>
       <c r="N28" s="0">
         <v>0</v>
@@ -5759,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="X28" s="0">
-        <v>0</v>
+        <v>0.90588965290619883</v>
       </c>
       <c r="Y28" s="0">
         <v>0</v>
@@ -5768,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="AA28" s="0">
-        <v>0</v>
+        <v>0.93073574131093795</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="AD28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="AG28" s="0">
-        <v>1</v>
+        <v>0.81770818937657319</v>
       </c>
       <c r="AH28" s="0">
         <v>0</v>
@@ -5825,13 +5825,13 @@
         <v>0</v>
       </c>
       <c r="AT28" s="0">
-        <v>0</v>
+        <v>0.60765532548727719</v>
       </c>
       <c r="AU28" s="0">
         <v>0</v>
       </c>
       <c r="AV28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW28" s="0">
         <v>0</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="BA28" s="0">
-        <v>0</v>
+        <v>0.93676942111862682</v>
       </c>
       <c r="BB28" s="0">
         <v>0</v>
@@ -5885,7 +5885,7 @@
         <v>0</v>
       </c>
       <c r="BN28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO28" s="0">
         <v>0</v>
@@ -5896,7 +5896,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0</v>
+        <v>0.78865891421324807</v>
       </c>
       <c r="B29" s="0">
         <v>0</v>
@@ -5935,7 +5935,7 @@
         <v>0</v>
       </c>
       <c r="N29" s="0">
-        <v>0</v>
+        <v>0.72021872511313101</v>
       </c>
       <c r="O29" s="0">
         <v>0</v>
@@ -6007,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="AL29" s="0">
-        <v>0</v>
+        <v>0.72101874531281118</v>
       </c>
       <c r="AM29" s="0">
         <v>0</v>
@@ -6031,7 +6031,7 @@
         <v>0</v>
       </c>
       <c r="AT29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU29" s="0">
         <v>0</v>
@@ -6058,7 +6058,7 @@
         <v>0</v>
       </c>
       <c r="BC29" s="0">
-        <v>0</v>
+        <v>0.68788100557972975</v>
       </c>
       <c r="BD29" s="0">
         <v>0</v>
@@ -6067,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="BF29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG29" s="0">
         <v>0</v>
@@ -6076,7 +6076,7 @@
         <v>0</v>
       </c>
       <c r="BI29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ29" s="0">
         <v>0</v>
@@ -6091,7 +6091,7 @@
         <v>0</v>
       </c>
       <c r="BN29" s="0">
-        <v>0</v>
+        <v>0.6187212513462057</v>
       </c>
       <c r="BO29" s="0">
         <v>0</v>
@@ -6102,7 +6102,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30" s="0">
         <v>0</v>
@@ -6129,7 +6129,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="0">
-        <v>0</v>
+        <v>0.93668066661676574</v>
       </c>
       <c r="K30" s="0">
         <v>0</v>
@@ -6183,7 +6183,7 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="0">
         <v>0</v>
@@ -6219,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="AN30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO30" s="0">
         <v>0</v>
@@ -6243,7 +6243,7 @@
         <v>0</v>
       </c>
       <c r="AV30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW30" s="0">
         <v>0</v>
@@ -6282,7 +6282,7 @@
         <v>0</v>
       </c>
       <c r="BI30" s="0">
-        <v>0</v>
+        <v>0.70188681877464543</v>
       </c>
       <c r="BJ30" s="0">
         <v>0</v>
@@ -6401,10 +6401,10 @@
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6437,10 +6437,10 @@
         <v>0</v>
       </c>
       <c r="AR31" s="0">
-        <v>0</v>
+        <v>0.68015304666942222</v>
       </c>
       <c r="AS31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT31" s="0">
         <v>0</v>
@@ -6455,16 +6455,16 @@
         <v>0</v>
       </c>
       <c r="AX31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ31" s="0">
         <v>0</v>
       </c>
       <c r="BA31" s="0">
-        <v>0</v>
+        <v>0.88115409127641109</v>
       </c>
       <c r="BB31" s="0">
         <v>0</v>
@@ -6574,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="U32" s="0">
-        <v>0</v>
+        <v>0.75185573560689534</v>
       </c>
       <c r="V32" s="0">
         <v>0</v>
@@ -6604,16 +6604,16 @@
         <v>0</v>
       </c>
       <c r="AE32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>0</v>
+        <v>0.74379592135698014</v>
       </c>
       <c r="AH32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6640,7 +6640,7 @@
         <v>0</v>
       </c>
       <c r="AQ32" s="0">
-        <v>0</v>
+        <v>0.76909905494894071</v>
       </c>
       <c r="AR32" s="0">
         <v>0</v>
@@ -6709,7 +6709,7 @@
         <v>0</v>
       </c>
       <c r="BN32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO32" s="0">
         <v>0</v>
@@ -6783,7 +6783,7 @@
         <v>0</v>
       </c>
       <c r="V33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W33" s="0">
         <v>0</v>
@@ -6801,7 +6801,7 @@
         <v>0</v>
       </c>
       <c r="AB33" s="0">
-        <v>1</v>
+        <v>0.62809559159684691</v>
       </c>
       <c r="AC33" s="0">
         <v>0</v>
@@ -6810,10 +6810,10 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF33" s="0">
-        <v>0</v>
+        <v>0.78273072518408537</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
@@ -6843,7 +6843,7 @@
         <v>0</v>
       </c>
       <c r="AP33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ33" s="0">
         <v>0</v>
@@ -6891,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="BF33" s="0">
-        <v>0</v>
+        <v>0.70318010381535956</v>
       </c>
       <c r="BG33" s="0">
         <v>0</v>
@@ -6918,7 +6918,7 @@
         <v>0</v>
       </c>
       <c r="BO33" s="0">
-        <v>0</v>
+        <v>0.8182855878870321</v>
       </c>
       <c r="BP33" s="0">
         <v>0</v>
@@ -6944,7 +6944,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" s="0">
         <v>0</v>
@@ -6959,10 +6959,10 @@
         <v>0</v>
       </c>
       <c r="L34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" s="0">
-        <v>0</v>
+        <v>0.80031952253122474</v>
       </c>
       <c r="N34" s="0">
         <v>0</v>
@@ -6974,13 +6974,13 @@
         <v>0</v>
       </c>
       <c r="Q34" s="0">
-        <v>0</v>
+        <v>0.7119837802062281</v>
       </c>
       <c r="R34" s="0">
         <v>0</v>
       </c>
       <c r="S34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34" s="0">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG34" s="0">
         <v>0</v>
@@ -7040,7 +7040,7 @@
         <v>0</v>
       </c>
       <c r="AM34" s="0">
-        <v>0</v>
+        <v>0.9077990310215891</v>
       </c>
       <c r="AN34" s="0">
         <v>0</v>
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="AR34" s="0">
-        <v>0</v>
+        <v>0.60966165090595537</v>
       </c>
       <c r="AS34" s="0">
         <v>0</v>
@@ -7067,7 +7067,7 @@
         <v>0</v>
       </c>
       <c r="AV34" s="0">
-        <v>0</v>
+        <v>0.70202691853135513</v>
       </c>
       <c r="AW34" s="0">
         <v>0</v>
@@ -7076,7 +7076,7 @@
         <v>0</v>
       </c>
       <c r="AY34" s="0">
-        <v>0</v>
+        <v>0.73982469301551723</v>
       </c>
       <c r="AZ34" s="0">
         <v>0</v>
@@ -7103,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="BH34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI34" s="0">
         <v>0</v>
@@ -7141,7 +7141,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" s="0">
         <v>0</v>
@@ -7153,13 +7153,13 @@
         <v>0</v>
       </c>
       <c r="H35" s="0">
-        <v>0</v>
+        <v>0.62499328793269138</v>
       </c>
       <c r="I35" s="0">
         <v>0</v>
       </c>
       <c r="J35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="0">
         <v>0</v>
@@ -7198,7 +7198,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X35" s="0">
         <v>0</v>
@@ -7210,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="AA35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB35" s="0">
         <v>0</v>
@@ -7252,7 +7252,7 @@
         <v>0</v>
       </c>
       <c r="AO35" s="0">
-        <v>0</v>
+        <v>0.81132741509560713</v>
       </c>
       <c r="AP35" s="0">
         <v>0</v>
@@ -7341,13 +7341,13 @@
         <v>0</v>
       </c>
       <c r="B36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" s="0">
         <v>0</v>
       </c>
       <c r="D36" s="0">
-        <v>0</v>
+        <v>0.6663018155111109</v>
       </c>
       <c r="E36" s="0">
         <v>0</v>
@@ -7365,13 +7365,13 @@
         <v>0</v>
       </c>
       <c r="J36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="0">
         <v>0</v>
       </c>
       <c r="L36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36" s="0">
         <v>0</v>
@@ -7449,7 +7449,7 @@
         <v>0</v>
       </c>
       <c r="AL36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7488,7 +7488,7 @@
         <v>0</v>
       </c>
       <c r="AY36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ36" s="0">
         <v>0</v>
@@ -7524,7 +7524,7 @@
         <v>0</v>
       </c>
       <c r="BK36" s="0">
-        <v>0</v>
+        <v>0.58390092731525889</v>
       </c>
       <c r="BL36" s="0">
         <v>0</v>
@@ -7550,10 +7550,10 @@
         <v>0</v>
       </c>
       <c r="C37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" s="0">
         <v>0</v>
@@ -7586,7 +7586,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" s="0">
         <v>0</v>
@@ -7658,7 +7658,7 @@
         <v>0</v>
       </c>
       <c r="AM37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7685,7 +7685,7 @@
         <v>0</v>
       </c>
       <c r="AV37" s="0">
-        <v>0</v>
+        <v>0.57807108291649967</v>
       </c>
       <c r="AW37" s="0">
         <v>0</v>
@@ -7718,7 +7718,7 @@
         <v>0</v>
       </c>
       <c r="BG37" s="0">
-        <v>0</v>
+        <v>0.8111232093822861</v>
       </c>
       <c r="BH37" s="0">
         <v>0</v>
@@ -7730,7 +7730,7 @@
         <v>0</v>
       </c>
       <c r="BK37" s="0">
-        <v>0</v>
+        <v>0.8529284186576076</v>
       </c>
       <c r="BL37" s="0">
         <v>0</v>
@@ -7742,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="BO37" s="0">
-        <v>0</v>
+        <v>0.67337624248686812</v>
       </c>
       <c r="BP37" s="0">
         <v>0</v>
@@ -7759,13 +7759,13 @@
         <v>0</v>
       </c>
       <c r="D38" s="0">
-        <v>0</v>
+        <v>0.88202560516350081</v>
       </c>
       <c r="E38" s="0">
         <v>0</v>
       </c>
       <c r="F38" s="0">
-        <v>1</v>
+        <v>0.69481190029474327</v>
       </c>
       <c r="G38" s="0">
         <v>0</v>
@@ -7810,7 +7810,7 @@
         <v>0</v>
       </c>
       <c r="U38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V38" s="0">
         <v>0</v>
@@ -7828,13 +7828,13 @@
         <v>0</v>
       </c>
       <c r="AA38" s="0">
-        <v>0</v>
+        <v>0.96919112088875026</v>
       </c>
       <c r="AB38" s="0">
         <v>0</v>
       </c>
       <c r="AC38" s="0">
-        <v>0</v>
+        <v>0.67938146209378869</v>
       </c>
       <c r="AD38" s="0">
         <v>0</v>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK38" s="0">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>0</v>
+        <v>0.95690874103580592</v>
       </c>
       <c r="AN38" s="0">
         <v>0</v>
@@ -7977,7 +7977,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" s="0">
         <v>0</v>
@@ -7998,7 +7998,7 @@
         <v>0</v>
       </c>
       <c r="O39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39" s="0">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>0</v>
       </c>
       <c r="AH39" s="0">
-        <v>0</v>
+        <v>0.74960101701427062</v>
       </c>
       <c r="AI39" s="0">
         <v>0</v>
@@ -8064,10 +8064,10 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39" s="0">
-        <v>0</v>
+        <v>0.76686685931804799</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
@@ -8082,10 +8082,10 @@
         <v>0</v>
       </c>
       <c r="AQ39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR39" s="0">
-        <v>0</v>
+        <v>0.52076281730265594</v>
       </c>
       <c r="AS39" s="0">
         <v>0</v>
@@ -8121,7 +8121,7 @@
         <v>0</v>
       </c>
       <c r="BD39" s="0">
-        <v>0</v>
+        <v>0.6477256551130921</v>
       </c>
       <c r="BE39" s="0">
         <v>0</v>
@@ -8204,10 +8204,10 @@
         <v>0</v>
       </c>
       <c r="O40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40" s="0">
-        <v>0</v>
+        <v>0.63876942062012887</v>
       </c>
       <c r="Q40" s="0">
         <v>0</v>
@@ -8249,7 +8249,7 @@
         <v>0</v>
       </c>
       <c r="AD40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE40" s="0">
         <v>0</v>
@@ -8285,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="AP40" s="0">
-        <v>0</v>
+        <v>0.80814520187058148</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8348,7 +8348,7 @@
         <v>0</v>
       </c>
       <c r="BK40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL40" s="0">
         <v>0</v>
@@ -8383,10 +8383,10 @@
         <v>0</v>
       </c>
       <c r="F41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" s="0">
         <v>0</v>
@@ -8395,7 +8395,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="0">
-        <v>0</v>
+        <v>0.99054327089457295</v>
       </c>
       <c r="K41" s="0">
         <v>0</v>
@@ -8407,10 +8407,10 @@
         <v>0</v>
       </c>
       <c r="N41" s="0">
-        <v>0</v>
+        <v>0.59359815677875782</v>
       </c>
       <c r="O41" s="0">
-        <v>0</v>
+        <v>0.57996019086225137</v>
       </c>
       <c r="P41" s="0">
         <v>0</v>
@@ -8422,7 +8422,7 @@
         <v>0</v>
       </c>
       <c r="S41" s="0">
-        <v>0</v>
+        <v>0.72811343760248426</v>
       </c>
       <c r="T41" s="0">
         <v>0</v>
@@ -8470,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="AI41" s="0">
-        <v>0</v>
+        <v>0.80568701215886296</v>
       </c>
       <c r="AJ41" s="0">
         <v>0</v>
@@ -8506,7 +8506,7 @@
         <v>0</v>
       </c>
       <c r="AU41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV41" s="0">
         <v>0</v>
@@ -8515,7 +8515,7 @@
         <v>0</v>
       </c>
       <c r="AX41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY41" s="0">
         <v>0</v>
@@ -8622,7 +8622,7 @@
         <v>0</v>
       </c>
       <c r="Q42" s="0">
-        <v>0</v>
+        <v>0.50782958519762822</v>
       </c>
       <c r="R42" s="0">
         <v>0</v>
@@ -8634,7 +8634,7 @@
         <v>0</v>
       </c>
       <c r="U42" s="0">
-        <v>0</v>
+        <v>0.72096150013550431</v>
       </c>
       <c r="V42" s="0">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>0</v>
       </c>
       <c r="AG42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH42" s="0">
         <v>0</v>
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>0</v>
+        <v>0.74323118454472836</v>
       </c>
       <c r="AO42" s="0">
         <v>0</v>
@@ -8700,7 +8700,7 @@
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR42" s="0">
         <v>0</v>
@@ -8721,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="AX42" s="0">
-        <v>0</v>
+        <v>0.62525881721876164</v>
       </c>
       <c r="AY42" s="0">
         <v>0</v>
@@ -8739,7 +8739,7 @@
         <v>0</v>
       </c>
       <c r="BD42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE42" s="0">
         <v>0</v>
@@ -8798,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="0">
         <v>0</v>
@@ -8873,7 +8873,7 @@
         <v>0</v>
       </c>
       <c r="AF43" s="0">
-        <v>0</v>
+        <v>0.70503567677745638</v>
       </c>
       <c r="AG43" s="0">
         <v>0</v>
@@ -8894,7 +8894,7 @@
         <v>0</v>
       </c>
       <c r="AM43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN43" s="0">
         <v>0</v>
@@ -8903,13 +8903,13 @@
         <v>0</v>
       </c>
       <c r="AP43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>0</v>
+        <v>0.59065690781433366</v>
       </c>
       <c r="AS43" s="0">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="AW43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX43" s="0">
         <v>0</v>
@@ -8954,7 +8954,7 @@
         <v>0</v>
       </c>
       <c r="BG43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH43" s="0">
         <v>0</v>
@@ -8986,7 +8986,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0</v>
+        <v>0.80320721207718693</v>
       </c>
       <c r="B44" s="0">
         <v>0</v>
@@ -8998,7 +8998,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="0">
-        <v>0</v>
+        <v>0.6411270624347275</v>
       </c>
       <c r="F44" s="0">
         <v>0</v>
@@ -9016,10 +9016,10 @@
         <v>0</v>
       </c>
       <c r="K44" s="0">
-        <v>0</v>
+        <v>0.90150707520963214</v>
       </c>
       <c r="L44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44" s="0">
         <v>0</v>
@@ -9031,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="P44" s="0">
-        <v>0</v>
+        <v>0.6953428764332733</v>
       </c>
       <c r="Q44" s="0">
         <v>0</v>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="AE44" s="0">
-        <v>0</v>
+        <v>0.62846236779138587</v>
       </c>
       <c r="AF44" s="0">
         <v>0</v>
@@ -9085,7 +9085,7 @@
         <v>0</v>
       </c>
       <c r="AH44" s="0">
-        <v>0</v>
+        <v>0.82484121683196743</v>
       </c>
       <c r="AI44" s="0">
         <v>0</v>
@@ -9100,7 +9100,7 @@
         <v>0</v>
       </c>
       <c r="AM44" s="0">
-        <v>0</v>
+        <v>0.79251655120820552</v>
       </c>
       <c r="AN44" s="0">
         <v>0</v>
@@ -9112,13 +9112,13 @@
         <v>0</v>
       </c>
       <c r="AQ44" s="0">
-        <v>0</v>
+        <v>0.67203540174082388</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT44" s="0">
         <v>0</v>
@@ -9148,7 +9148,7 @@
         <v>0</v>
       </c>
       <c r="BC44" s="0">
-        <v>0</v>
+        <v>0.7087014489485024</v>
       </c>
       <c r="BD44" s="0">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="BI44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ44" s="0">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="BP44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -9198,10 +9198,10 @@
         <v>0</v>
       </c>
       <c r="C45" s="0">
-        <v>0</v>
+        <v>0.7251791499238196</v>
       </c>
       <c r="D45" s="0">
-        <v>0</v>
+        <v>0.52716967238630663</v>
       </c>
       <c r="E45" s="0">
         <v>0</v>
@@ -9282,7 +9282,7 @@
         <v>0</v>
       </c>
       <c r="AE45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF45" s="0">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
@@ -9351,7 +9351,7 @@
         <v>0</v>
       </c>
       <c r="BB45" s="0">
-        <v>0</v>
+        <v>0.90367735019017403</v>
       </c>
       <c r="BC45" s="0">
         <v>0</v>
@@ -9363,13 +9363,13 @@
         <v>0</v>
       </c>
       <c r="BF45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG45" s="0">
         <v>0</v>
       </c>
       <c r="BH45" s="0">
-        <v>0</v>
+        <v>0.85476846291889452</v>
       </c>
       <c r="BI45" s="0">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>0</v>
       </c>
       <c r="AB46" s="0">
-        <v>0</v>
+        <v>0.56909506164356038</v>
       </c>
       <c r="AC46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD46" s="0">
         <v>0</v>
@@ -9536,10 +9536,10 @@
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>1</v>
+        <v>0.81524607691360962</v>
       </c>
       <c r="AV46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9587,7 +9587,7 @@
         <v>0</v>
       </c>
       <c r="BL46" s="0">
-        <v>0</v>
+        <v>0.66143277569625469</v>
       </c>
       <c r="BM46" s="0">
         <v>0</v>
@@ -9599,12 +9599,12 @@
         <v>0</v>
       </c>
       <c r="BP46" s="0">
-        <v>0</v>
+        <v>0.53237034984728804</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B47" s="0">
         <v>0</v>
@@ -9649,7 +9649,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="0">
         <v>0</v>
@@ -9670,7 +9670,7 @@
         <v>0</v>
       </c>
       <c r="W47" s="0">
-        <v>0</v>
+        <v>0.76944214732861149</v>
       </c>
       <c r="X47" s="0">
         <v>0</v>
@@ -9724,7 +9724,7 @@
         <v>0</v>
       </c>
       <c r="AO47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP47" s="0">
         <v>0</v>
@@ -9739,13 +9739,13 @@
         <v>0</v>
       </c>
       <c r="AT47" s="0">
-        <v>1</v>
+        <v>0.7406961736238149</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>0</v>
+        <v>0.79568440529481621</v>
       </c>
       <c r="AW47" s="0">
         <v>0</v>
@@ -9775,10 +9775,10 @@
         <v>0</v>
       </c>
       <c r="BF47" s="0">
-        <v>0</v>
+        <v>0.52865234670265115</v>
       </c>
       <c r="BG47" s="0">
-        <v>0</v>
+        <v>0.7816082908897557</v>
       </c>
       <c r="BH47" s="0">
         <v>0</v>
@@ -9799,7 +9799,7 @@
         <v>0</v>
       </c>
       <c r="BN47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO47" s="0">
         <v>0</v>
@@ -9819,7 +9819,7 @@
         <v>0</v>
       </c>
       <c r="D48" s="0">
-        <v>0</v>
+        <v>0.88011121614280885</v>
       </c>
       <c r="E48" s="0">
         <v>0</v>
@@ -9891,13 +9891,13 @@
         <v>0</v>
       </c>
       <c r="AB48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC48" s="0">
         <v>0</v>
       </c>
       <c r="AD48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE48" s="0">
         <v>0</v>
@@ -9909,7 +9909,7 @@
         <v>0</v>
       </c>
       <c r="AH48" s="0">
-        <v>0</v>
+        <v>0.65178968118110914</v>
       </c>
       <c r="AI48" s="0">
         <v>0</v>
@@ -9918,7 +9918,7 @@
         <v>0</v>
       </c>
       <c r="AK48" s="0">
-        <v>0</v>
+        <v>0.83050489640962621</v>
       </c>
       <c r="AL48" s="0">
         <v>0</v>
@@ -9945,10 +9945,10 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU48" s="0">
-        <v>0</v>
+        <v>0.97028346243286379</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -9978,7 +9978,7 @@
         <v>0</v>
       </c>
       <c r="BE48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF48" s="0">
         <v>0</v>
@@ -10002,10 +10002,10 @@
         <v>0</v>
       </c>
       <c r="BM48" s="0">
-        <v>0</v>
+        <v>0.66851124072415335</v>
       </c>
       <c r="BN48" s="0">
-        <v>0</v>
+        <v>0.91973304504114206</v>
       </c>
       <c r="BO48" s="0">
         <v>0</v>
@@ -10025,7 +10025,7 @@
         <v>0</v>
       </c>
       <c r="D49" s="0">
-        <v>0</v>
+        <v>0.67487622513494161</v>
       </c>
       <c r="E49" s="0">
         <v>0</v>
@@ -10037,7 +10037,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="0">
-        <v>0</v>
+        <v>0.99125806109847048</v>
       </c>
       <c r="I49" s="0">
         <v>0</v>
@@ -10142,7 +10142,7 @@
         <v>0</v>
       </c>
       <c r="AQ49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR49" s="0">
         <v>0</v>
@@ -10163,10 +10163,10 @@
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY49" s="0">
-        <v>0</v>
+        <v>0.88053960399275466</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10202,13 +10202,13 @@
         <v>0</v>
       </c>
       <c r="BK49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL49" s="0">
         <v>0</v>
       </c>
       <c r="BM49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN49" s="0">
         <v>0</v>
@@ -10249,7 +10249,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" s="0">
         <v>0</v>
@@ -10312,7 +10312,7 @@
         <v>0</v>
       </c>
       <c r="AE50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF50" s="0">
         <v>0</v>
@@ -10342,10 +10342,10 @@
         <v>0</v>
       </c>
       <c r="AO50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP50" s="0">
-        <v>0</v>
+        <v>0.93246906708508903</v>
       </c>
       <c r="AQ50" s="0">
         <v>0</v>
@@ -10363,16 +10363,16 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>0</v>
+        <v>0.81921122600549101</v>
       </c>
       <c r="AZ50" s="0">
         <v>0</v>
@@ -10381,7 +10381,7 @@
         <v>0</v>
       </c>
       <c r="BB50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC50" s="0">
         <v>0</v>
@@ -10399,13 +10399,13 @@
         <v>0</v>
       </c>
       <c r="BH50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI50" s="0">
         <v>0</v>
       </c>
       <c r="BJ50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK50" s="0">
         <v>0</v>
@@ -10461,13 +10461,13 @@
         <v>0</v>
       </c>
       <c r="L51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51" s="0">
         <v>0</v>
       </c>
       <c r="N51" s="0">
-        <v>0</v>
+        <v>0.9895868498583964</v>
       </c>
       <c r="O51" s="0">
         <v>0</v>
@@ -10518,7 +10518,7 @@
         <v>0</v>
       </c>
       <c r="AE51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF51" s="0">
         <v>0</v>
@@ -10527,13 +10527,13 @@
         <v>0</v>
       </c>
       <c r="AH51" s="0">
-        <v>0</v>
+        <v>0.61072636923865775</v>
       </c>
       <c r="AI51" s="0">
         <v>0</v>
       </c>
       <c r="AJ51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK51" s="0">
         <v>0</v>
@@ -10572,10 +10572,10 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>0</v>
+        <v>0.88990321827645724</v>
       </c>
       <c r="AX51" s="0">
-        <v>0</v>
+        <v>0.86840660098346123</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
@@ -10658,7 +10658,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" s="0">
         <v>0</v>
@@ -10790,7 +10790,7 @@
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB52" s="0">
         <v>0</v>
@@ -10808,7 +10808,7 @@
         <v>0</v>
       </c>
       <c r="BG52" s="0">
-        <v>0</v>
+        <v>0.9018340253940349</v>
       </c>
       <c r="BH52" s="0">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="BK52" s="0">
-        <v>0</v>
+        <v>0.58664556601272633</v>
       </c>
       <c r="BL52" s="0">
         <v>0</v>
@@ -10864,13 +10864,13 @@
         <v>0</v>
       </c>
       <c r="I53" s="0">
-        <v>0</v>
+        <v>0.50383211574613262</v>
       </c>
       <c r="J53" s="0">
         <v>0</v>
       </c>
       <c r="K53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" s="0">
         <v>0</v>
@@ -10915,13 +10915,13 @@
         <v>0</v>
       </c>
       <c r="Z53" s="0">
-        <v>1</v>
+        <v>0.67552056937998772</v>
       </c>
       <c r="AA53" s="0">
         <v>0</v>
       </c>
       <c r="AB53" s="0">
-        <v>0</v>
+        <v>0.77610038987989916</v>
       </c>
       <c r="AC53" s="0">
         <v>0</v>
@@ -10930,7 +10930,7 @@
         <v>0</v>
       </c>
       <c r="AE53" s="0">
-        <v>0</v>
+        <v>0.90471848335343208</v>
       </c>
       <c r="AF53" s="0">
         <v>0</v>
@@ -10993,7 +10993,7 @@
         <v>0</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
@@ -11011,7 +11011,7 @@
         <v>0</v>
       </c>
       <c r="BF53" s="0">
-        <v>0</v>
+        <v>0.90838218294790862</v>
       </c>
       <c r="BG53" s="0">
         <v>0</v>
@@ -11026,13 +11026,13 @@
         <v>0</v>
       </c>
       <c r="BK53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL53" s="0">
         <v>0</v>
       </c>
       <c r="BM53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN53" s="0">
         <v>0</v>
@@ -11100,7 +11100,7 @@
         <v>0</v>
       </c>
       <c r="S54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T54" s="0">
         <v>0</v>
@@ -11178,7 +11178,7 @@
         <v>0</v>
       </c>
       <c r="AS54" s="0">
-        <v>0</v>
+        <v>0.93108023689540387</v>
       </c>
       <c r="AT54" s="0">
         <v>0</v>
@@ -11193,7 +11193,7 @@
         <v>0</v>
       </c>
       <c r="AX54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY54" s="0">
         <v>0</v>
@@ -11211,7 +11211,7 @@
         <v>0</v>
       </c>
       <c r="BD54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>0</v>
       </c>
       <c r="BG54" s="0">
-        <v>0</v>
+        <v>0.53412470642459353</v>
       </c>
       <c r="BH54" s="0">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="O55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P55" s="0">
         <v>0</v>
@@ -11336,7 +11336,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="0">
-        <v>0</v>
+        <v>0.60266816121497535</v>
       </c>
       <c r="AD55" s="0">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="AR55" s="0">
-        <v>0</v>
+        <v>0.63261777516664841</v>
       </c>
       <c r="AS55" s="0">
         <v>0</v>
@@ -11420,7 +11420,7 @@
         <v>0</v>
       </c>
       <c r="BE55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11432,7 +11432,7 @@
         <v>0</v>
       </c>
       <c r="BI55" s="0">
-        <v>0</v>
+        <v>0.56364916325602421</v>
       </c>
       <c r="BJ55" s="0">
         <v>0</v>
@@ -11458,7 +11458,7 @@
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>0</v>
+        <v>0.93346550727503597</v>
       </c>
       <c r="B56" s="0">
         <v>0</v>
@@ -11491,7 +11491,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="0">
-        <v>0</v>
+        <v>0.70906727672239378</v>
       </c>
       <c r="M56" s="0">
         <v>0</v>
@@ -11500,7 +11500,7 @@
         <v>0</v>
       </c>
       <c r="O56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P56" s="0">
         <v>0</v>
@@ -11530,10 +11530,10 @@
         <v>0</v>
       </c>
       <c r="Y56" s="0">
-        <v>0</v>
+        <v>0.82354264111456255</v>
       </c>
       <c r="Z56" s="0">
-        <v>1</v>
+        <v>0.72789033889242982</v>
       </c>
       <c r="AA56" s="0">
         <v>0</v>
@@ -11572,7 +11572,7 @@
         <v>0</v>
       </c>
       <c r="AM56" s="0">
-        <v>0</v>
+        <v>0.59848582936020378</v>
       </c>
       <c r="AN56" s="0">
         <v>0</v>
@@ -11581,7 +11581,7 @@
         <v>0</v>
       </c>
       <c r="AP56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ56" s="0">
         <v>0</v>
@@ -11617,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC56" s="0">
         <v>0</v>
@@ -11629,7 +11629,7 @@
         <v>0</v>
       </c>
       <c r="BF56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11667,7 +11667,7 @@
         <v>0</v>
       </c>
       <c r="B57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" s="0">
         <v>0</v>
@@ -11805,7 +11805,7 @@
         <v>0</v>
       </c>
       <c r="AV57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW57" s="0">
         <v>0</v>
@@ -11826,7 +11826,7 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD57" s="0">
         <v>0</v>
@@ -11838,7 +11838,7 @@
         <v>0</v>
       </c>
       <c r="BG57" s="0">
-        <v>0</v>
+        <v>0.81247629512814534</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11850,7 +11850,7 @@
         <v>0</v>
       </c>
       <c r="BK57" s="0">
-        <v>0</v>
+        <v>0.78772977222881768</v>
       </c>
       <c r="BL57" s="0">
         <v>0</v>
@@ -11897,7 +11897,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="0">
-        <v>0</v>
+        <v>0.68185251858567431</v>
       </c>
       <c r="K58" s="0">
         <v>0</v>
@@ -11915,7 +11915,7 @@
         <v>0</v>
       </c>
       <c r="P58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="0">
         <v>0</v>
@@ -11930,10 +11930,10 @@
         <v>0</v>
       </c>
       <c r="U58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W58" s="0">
         <v>0</v>
@@ -11954,7 +11954,7 @@
         <v>0</v>
       </c>
       <c r="AC58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD58" s="0">
         <v>0</v>
@@ -11966,7 +11966,7 @@
         <v>0</v>
       </c>
       <c r="AG58" s="0">
-        <v>0</v>
+        <v>0.90665277419235157</v>
       </c>
       <c r="AH58" s="0">
         <v>0</v>
@@ -12002,13 +12002,13 @@
         <v>0</v>
       </c>
       <c r="AS58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT58" s="0">
         <v>0</v>
       </c>
       <c r="AU58" s="0">
-        <v>0</v>
+        <v>0.55685479638284008</v>
       </c>
       <c r="AV58" s="0">
         <v>0</v>
@@ -12026,7 +12026,7 @@
         <v>0</v>
       </c>
       <c r="BA58" s="0">
-        <v>0</v>
+        <v>0.96750833346842913</v>
       </c>
       <c r="BB58" s="0">
         <v>0</v>
@@ -12035,7 +12035,7 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE58" s="0">
         <v>0</v>
@@ -12097,7 +12097,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" s="0">
         <v>0</v>
@@ -12139,13 +12139,13 @@
         <v>0</v>
       </c>
       <c r="V59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X59" s="0">
-        <v>0</v>
+        <v>0.70545886995342144</v>
       </c>
       <c r="Y59" s="0">
         <v>0</v>
@@ -12184,7 +12184,7 @@
         <v>0</v>
       </c>
       <c r="AK59" s="0">
-        <v>0</v>
+        <v>0.80005652816571526</v>
       </c>
       <c r="AL59" s="0">
         <v>0</v>
@@ -12202,7 +12202,7 @@
         <v>0</v>
       </c>
       <c r="AQ59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR59" s="0">
         <v>0</v>
@@ -12214,7 +12214,7 @@
         <v>0</v>
       </c>
       <c r="AU59" s="0">
-        <v>0</v>
+        <v>0.93032234663834967</v>
       </c>
       <c r="AV59" s="0">
         <v>0</v>
@@ -12229,13 +12229,13 @@
         <v>0</v>
       </c>
       <c r="AZ59" s="0">
-        <v>0</v>
+        <v>0.78717488674707048</v>
       </c>
       <c r="BA59" s="0">
         <v>0</v>
       </c>
       <c r="BB59" s="0">
-        <v>0</v>
+        <v>0.92877938856008668</v>
       </c>
       <c r="BC59" s="0">
         <v>0</v>
@@ -12244,7 +12244,7 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>0</v>
+        <v>0.96584227388329502</v>
       </c>
       <c r="BF59" s="0">
         <v>0</v>
@@ -12256,10 +12256,10 @@
         <v>0</v>
       </c>
       <c r="BI59" s="0">
-        <v>0</v>
+        <v>0.74696125661708823</v>
       </c>
       <c r="BJ59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK59" s="0">
         <v>0</v>
@@ -12294,7 +12294,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="0">
-        <v>0</v>
+        <v>0.99281978892381229</v>
       </c>
       <c r="F60" s="0">
         <v>0</v>
@@ -12381,7 +12381,7 @@
         <v>0</v>
       </c>
       <c r="AH60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI60" s="0">
         <v>0</v>
@@ -12414,7 +12414,7 @@
         <v>0</v>
       </c>
       <c r="AS60" s="0">
-        <v>0</v>
+        <v>0.64567612475070935</v>
       </c>
       <c r="AT60" s="0">
         <v>0</v>
@@ -12429,7 +12429,7 @@
         <v>0</v>
       </c>
       <c r="AX60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY60" s="0">
         <v>0</v>
@@ -12471,7 +12471,7 @@
         <v>0</v>
       </c>
       <c r="BL60" s="0">
-        <v>0</v>
+        <v>0.89539701834271468</v>
       </c>
       <c r="BM60" s="0">
         <v>0</v>
@@ -12494,7 +12494,7 @@
         <v>0</v>
       </c>
       <c r="C61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" s="0">
         <v>0</v>
@@ -12503,10 +12503,10 @@
         <v>0</v>
       </c>
       <c r="F61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" s="0">
-        <v>0</v>
+        <v>0.56529770487395148</v>
       </c>
       <c r="H61" s="0">
         <v>0</v>
@@ -12545,7 +12545,7 @@
         <v>0</v>
       </c>
       <c r="T61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U61" s="0">
         <v>0</v>
@@ -12572,10 +12572,10 @@
         <v>0</v>
       </c>
       <c r="AC61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD61" s="0">
-        <v>0</v>
+        <v>0.82165025811708059</v>
       </c>
       <c r="AE61" s="0">
         <v>0</v>
@@ -12617,7 +12617,7 @@
         <v>0</v>
       </c>
       <c r="AR61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS61" s="0">
         <v>0</v>
@@ -12650,7 +12650,7 @@
         <v>0</v>
       </c>
       <c r="BC61" s="0">
-        <v>0</v>
+        <v>0.95165872094936432</v>
       </c>
       <c r="BD61" s="0">
         <v>0</v>
@@ -12662,7 +12662,7 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>0</v>
+        <v>0.67961077405048664</v>
       </c>
       <c r="BH61" s="0">
         <v>0</v>
@@ -12674,10 +12674,10 @@
         <v>0</v>
       </c>
       <c r="BK61" s="0">
-        <v>0</v>
+        <v>0.91854360165553506</v>
       </c>
       <c r="BL61" s="0">
-        <v>0</v>
+        <v>0.77850398464584125</v>
       </c>
       <c r="BM61" s="0">
         <v>0</v>
@@ -12697,7 +12697,7 @@
         <v>0</v>
       </c>
       <c r="B62" s="0">
-        <v>0</v>
+        <v>0.54556769096567681</v>
       </c>
       <c r="C62" s="0">
         <v>0</v>
@@ -12709,7 +12709,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" s="0">
         <v>0</v>
@@ -12736,10 +12736,10 @@
         <v>0</v>
       </c>
       <c r="O62" s="0">
-        <v>0</v>
+        <v>0.65502408187741579</v>
       </c>
       <c r="P62" s="0">
-        <v>0</v>
+        <v>0.55225711545025291</v>
       </c>
       <c r="Q62" s="0">
         <v>0</v>
@@ -12841,7 +12841,7 @@
         <v>0</v>
       </c>
       <c r="AX62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY62" s="0">
         <v>0</v>
@@ -12868,7 +12868,7 @@
         <v>0</v>
       </c>
       <c r="BG62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH62" s="0">
         <v>0</v>
@@ -12880,7 +12880,7 @@
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>0</v>
+        <v>0.92199262919999758</v>
       </c>
       <c r="BL62" s="0">
         <v>0</v>
@@ -12951,7 +12951,7 @@
         <v>0</v>
       </c>
       <c r="R63" s="0">
-        <v>0</v>
+        <v>0.66394269826799035</v>
       </c>
       <c r="S63" s="0">
         <v>0</v>
@@ -12960,7 +12960,7 @@
         <v>0</v>
       </c>
       <c r="U63" s="0">
-        <v>0</v>
+        <v>0.99773992059205652</v>
       </c>
       <c r="V63" s="0">
         <v>0</v>
@@ -13005,10 +13005,10 @@
         <v>0</v>
       </c>
       <c r="AJ63" s="0">
-        <v>0</v>
+        <v>0.65452722117628337</v>
       </c>
       <c r="AK63" s="0">
-        <v>0</v>
+        <v>0.60107456085855815</v>
       </c>
       <c r="AL63" s="0">
         <v>0</v>
@@ -13017,7 +13017,7 @@
         <v>0</v>
       </c>
       <c r="AN63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO63" s="0">
         <v>0</v>
@@ -13044,7 +13044,7 @@
         <v>0</v>
       </c>
       <c r="AW63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX63" s="0">
         <v>0</v>
@@ -13053,10 +13053,10 @@
         <v>0</v>
       </c>
       <c r="AZ63" s="0">
-        <v>0</v>
+        <v>0.60209306375486704</v>
       </c>
       <c r="BA63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB63" s="0">
         <v>0</v>
@@ -13068,7 +13068,7 @@
         <v>0</v>
       </c>
       <c r="BE63" s="0">
-        <v>0</v>
+        <v>0.52320503109998828</v>
       </c>
       <c r="BF63" s="0">
         <v>0</v>
@@ -13080,16 +13080,16 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>0</v>
+        <v>0.74369052210920239</v>
       </c>
       <c r="BJ63" s="0">
-        <v>0</v>
+        <v>0.74678102745908093</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM63" s="0">
         <v>0</v>
@@ -13098,7 +13098,7 @@
         <v>0</v>
       </c>
       <c r="BO63" s="0">
-        <v>0</v>
+        <v>0.50777517958253027</v>
       </c>
       <c r="BP63" s="0">
         <v>0</v>
@@ -13109,7 +13109,7 @@
         <v>0</v>
       </c>
       <c r="B64" s="0">
-        <v>0</v>
+        <v>0.81302775847430997</v>
       </c>
       <c r="C64" s="0">
         <v>0</v>
@@ -13178,10 +13178,10 @@
         <v>0</v>
       </c>
       <c r="Y64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA64" s="0">
         <v>0</v>
@@ -13241,7 +13241,7 @@
         <v>0</v>
       </c>
       <c r="AT64" s="0">
-        <v>0</v>
+        <v>0.89966614436068693</v>
       </c>
       <c r="AU64" s="0">
         <v>0</v>
@@ -13283,22 +13283,22 @@
         <v>0</v>
       </c>
       <c r="BH64" s="0">
-        <v>0</v>
+        <v>0.91443443345594821</v>
       </c>
       <c r="BI64" s="0">
-        <v>0</v>
+        <v>0.94762779053566315</v>
       </c>
       <c r="BJ64" s="0">
         <v>0</v>
       </c>
       <c r="BK64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>1</v>
+        <v>0.90057468469870672</v>
       </c>
       <c r="BN64" s="0">
         <v>0</v>
@@ -13351,7 +13351,7 @@
         <v>0</v>
       </c>
       <c r="N65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O65" s="0">
         <v>0</v>
@@ -13390,7 +13390,7 @@
         <v>0</v>
       </c>
       <c r="AA65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB65" s="0">
         <v>0</v>
@@ -13453,10 +13453,10 @@
         <v>0</v>
       </c>
       <c r="AV65" s="0">
-        <v>0</v>
+        <v>0.74025271452084285</v>
       </c>
       <c r="AW65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX65" s="0">
         <v>0</v>
@@ -13468,7 +13468,7 @@
         <v>0</v>
       </c>
       <c r="BA65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB65" s="0">
         <v>0</v>
@@ -13501,7 +13501,7 @@
         <v>0</v>
       </c>
       <c r="BL65" s="0">
-        <v>1</v>
+        <v>0.64324954998696393</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="BO65" s="0">
-        <v>0</v>
+        <v>0.61092036598588484</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13521,7 +13521,7 @@
         <v>0</v>
       </c>
       <c r="B66" s="0">
-        <v>0</v>
+        <v>0.69750477923781062</v>
       </c>
       <c r="C66" s="0">
         <v>0</v>
@@ -13575,13 +13575,13 @@
         <v>0</v>
       </c>
       <c r="T66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U66" s="0">
         <v>0</v>
       </c>
       <c r="V66" s="0">
-        <v>0</v>
+        <v>0.86950294321935373</v>
       </c>
       <c r="W66" s="0">
         <v>0</v>
@@ -13590,7 +13590,7 @@
         <v>0</v>
       </c>
       <c r="Y66" s="0">
-        <v>0</v>
+        <v>0.52955820025354117</v>
       </c>
       <c r="Z66" s="0">
         <v>0</v>
@@ -13599,10 +13599,10 @@
         <v>0</v>
       </c>
       <c r="AB66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC66" s="0">
-        <v>0</v>
+        <v>0.9099990999453178</v>
       </c>
       <c r="AD66" s="0">
         <v>0</v>
@@ -13611,7 +13611,7 @@
         <v>0</v>
       </c>
       <c r="AF66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG66" s="0">
         <v>0</v>
@@ -13656,10 +13656,10 @@
         <v>0</v>
       </c>
       <c r="AU66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV66" s="0">
-        <v>0</v>
+        <v>0.57225583418224246</v>
       </c>
       <c r="AW66" s="0">
         <v>0</v>
@@ -13781,7 +13781,7 @@
         <v>0</v>
       </c>
       <c r="T67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U67" s="0">
         <v>0</v>
@@ -13790,7 +13790,7 @@
         <v>0</v>
       </c>
       <c r="W67" s="0">
-        <v>0</v>
+        <v>0.95937274393494987</v>
       </c>
       <c r="X67" s="0">
         <v>0</v>
@@ -13820,7 +13820,7 @@
         <v>0</v>
       </c>
       <c r="AG67" s="0">
-        <v>0</v>
+        <v>0.78478300269488777</v>
       </c>
       <c r="AH67" s="0">
         <v>0</v>
@@ -13832,7 +13832,7 @@
         <v>0</v>
       </c>
       <c r="AK67" s="0">
-        <v>0</v>
+        <v>0.78472427900911845</v>
       </c>
       <c r="AL67" s="0">
         <v>0</v>
@@ -13910,13 +13910,13 @@
         <v>0</v>
       </c>
       <c r="BK67" s="0">
-        <v>0</v>
+        <v>0.50889840258806351</v>
       </c>
       <c r="BL67" s="0">
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>0</v>
+        <v>0.72047411346250301</v>
       </c>
       <c r="BN67" s="0">
         <v>0</v>
@@ -13925,7 +13925,7 @@
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>1</v>
+        <v>0.97074725545670493</v>
       </c>
     </row>
     <row r="68">
@@ -13933,7 +13933,7 @@
         <v>0</v>
       </c>
       <c r="B68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -13984,10 +13984,10 @@
         <v>0</v>
       </c>
       <c r="S68" s="0">
-        <v>0</v>
+        <v>0.70293921248844393</v>
       </c>
       <c r="T68" s="0">
-        <v>0</v>
+        <v>0.57593337558254576</v>
       </c>
       <c r="U68" s="0">
         <v>0</v>
@@ -14059,13 +14059,13 @@
         <v>0</v>
       </c>
       <c r="AR68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS68" s="0">
         <v>0</v>
       </c>
       <c r="AT68" s="0">
-        <v>0</v>
+        <v>0.60095980290582651</v>
       </c>
       <c r="AU68" s="0">
         <v>0</v>
@@ -14128,7 +14128,7 @@
         <v>0</v>
       </c>
       <c r="BO68" s="0">
-        <v>1</v>
+        <v>0.89557069816822821</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject9.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject9.xlsx
@@ -146,7 +146,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="0">
-        <v>0.74577390259798881</v>
+        <v>0.98590013770136686</v>
       </c>
       <c r="H1" s="0">
         <v>0</v>
@@ -212,7 +212,7 @@
         <v>0</v>
       </c>
       <c r="AC1" s="0">
-        <v>0.75428408283830994</v>
+        <v>0.78865891421324807</v>
       </c>
       <c r="AD1" s="0">
         <v>0</v>
@@ -257,7 +257,7 @@
         <v>0</v>
       </c>
       <c r="AR1" s="0">
-        <v>0.77499781840047022</v>
+        <v>0.80320721207718693</v>
       </c>
       <c r="AS1" s="0">
         <v>0</v>
@@ -293,7 +293,7 @@
         <v>0</v>
       </c>
       <c r="BD1" s="0">
-        <v>0.62103322348347645</v>
+        <v>0.93346550727503597</v>
       </c>
       <c r="BE1" s="0">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="AS3" s="0">
-        <v>0.52590056170155797</v>
+        <v>0.7251791499238196</v>
       </c>
       <c r="AT3" s="0">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>0.67896022440227821</v>
+        <v>0.9083605341823463</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="AL4" s="0">
-        <v>0.76094631797002876</v>
+        <v>0.88202560516350081</v>
       </c>
       <c r="AM4" s="0">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="0">
-        <v>0.52869228884947983</v>
+        <v>0.79996188694999137</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="BH5" s="0">
-        <v>0.96856392596500585</v>
+        <v>0.99281978892381229</v>
       </c>
       <c r="BI5" s="0">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.55812537442927979</v>
+        <v>0.94411554051982138</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="0">
-        <v>0.85011388340740246</v>
+        <v>0.89910690299524765</v>
       </c>
       <c r="T7" s="0">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y7" s="0">
-        <v>0.8081901324532299</v>
+        <v>0.8188674106293452</v>
       </c>
       <c r="Z7" s="0">
         <v>0</v>
@@ -1645,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="Z8" s="0">
-        <v>0.69716291463110547</v>
+        <v>0.79471793926032752</v>
       </c>
       <c r="AA8" s="0">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="AI8" s="0">
-        <v>0.54953507895418108</v>
+        <v>0.62499328793269138</v>
       </c>
       <c r="AJ8" s="0">
         <v>0</v>
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="AW8" s="0">
-        <v>0.5753185751939458</v>
+        <v>0.99125806109847048</v>
       </c>
       <c r="AX8" s="0">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="Q9" s="0">
-        <v>0.75298802752889193</v>
+        <v>0.8996017315776863</v>
       </c>
       <c r="R9" s="0">
         <v>0</v>
       </c>
       <c r="S9" s="0">
-        <v>0.6848507520749163</v>
+        <v>0.9317695031680171</v>
       </c>
       <c r="T9" s="0">
         <v>0</v>
@@ -2015,7 +2015,7 @@
         <v>0.85849259101038178</v>
       </c>
       <c r="L10" s="0">
-        <v>0.62509975164799914</v>
+        <v>0.71418186272317319</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="AO10" s="0">
-        <v>0.91146401800741594</v>
+        <v>0.99054327089457295</v>
       </c>
       <c r="AP10" s="0">
         <v>0</v>
@@ -2215,13 +2215,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="0">
-        <v>0.69938060209630204</v>
+        <v>0.85849259101038178</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>0.88428759932769108</v>
+        <v>0.92940802725473959</v>
       </c>
       <c r="M11" s="0">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="AR11" s="0">
-        <v>0.68444641669118877</v>
+        <v>0.90150707520963214</v>
       </c>
       <c r="AS11" s="0">
         <v>0</v>
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="AA12" s="0">
-        <v>0.54115295967841337</v>
+        <v>0.74191197011896293</v>
       </c>
       <c r="AB12" s="0">
         <v>0</v>
@@ -2559,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="BD12" s="0">
-        <v>0.69276693709279347</v>
+        <v>0.70906727672239378</v>
       </c>
       <c r="BE12" s="0">
         <v>0</v>
@@ -2672,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="Y13" s="0">
-        <v>0.83174544264053796</v>
+        <v>0.96400903027128404</v>
       </c>
       <c r="Z13" s="0">
         <v>0</v>
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="AH13" s="0">
-        <v>0.55654493472613664</v>
+        <v>0.80031952253122474</v>
       </c>
       <c r="AI13" s="0">
         <v>0</v>
@@ -2830,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="0">
-        <v>0.7094765640771914</v>
+        <v>0.92768805610345006</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
@@ -2890,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="0">
-        <v>0.60273067793760648</v>
+        <v>0.72021872511313101</v>
       </c>
       <c r="AD14" s="0">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="AY14" s="0">
-        <v>0.65574591772715496</v>
+        <v>0.9895868498583964</v>
       </c>
       <c r="AZ14" s="0">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="AR16" s="0">
-        <v>0.67595188483700452</v>
+        <v>0.6953428764332733</v>
       </c>
       <c r="AS16" s="0">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>0.65911369443665757</v>
+        <v>0.97391847499783291</v>
       </c>
       <c r="Q18" s="0">
-        <v>0.7118132930481732</v>
+        <v>0.98773297953041994</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="AO19" s="0">
-        <v>0.70182321925004043</v>
+        <v>0.72811343760248426</v>
       </c>
       <c r="AP19" s="0">
         <v>0</v>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="BP19" s="0">
-        <v>0.53305503086024131</v>
+        <v>0.70293921248844393</v>
       </c>
     </row>
     <row r="20">
@@ -4102,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>0.53763579453939303</v>
+        <v>0.93856198325321216</v>
       </c>
       <c r="V20" s="0">
         <v>0</v>
@@ -4254,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="0">
-        <v>0.69032550748650223</v>
+        <v>0.84011664797322305</v>
       </c>
       <c r="D21" s="0">
         <v>0</v>
@@ -4299,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="R21" s="0">
-        <v>0.7399904461073683</v>
+        <v>0.88074483029841877</v>
       </c>
       <c r="S21" s="0">
         <v>0</v>
@@ -4341,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="AF21" s="0">
-        <v>0.5016534180582054</v>
+        <v>0.75185573560689534</v>
       </c>
       <c r="AG21" s="0">
         <v>0</v>
@@ -4434,7 +4434,7 @@
         <v>0</v>
       </c>
       <c r="BK21" s="0">
-        <v>0.75004969403549571</v>
+        <v>0.99773992059205652</v>
       </c>
       <c r="BL21" s="0">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="0">
-        <v>0.687896984571578</v>
+        <v>0.70183477780704939</v>
       </c>
       <c r="L22" s="0">
         <v>0</v>
@@ -4505,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="R22" s="0">
-        <v>0.73601700705599371</v>
+        <v>0.92008096902426217</v>
       </c>
       <c r="S22" s="0">
         <v>0</v>
@@ -4649,7 +4649,7 @@
         <v>0</v>
       </c>
       <c r="BN22" s="0">
-        <v>0.57516714060596619</v>
+        <v>0.86950294321935373</v>
       </c>
       <c r="BO22" s="0">
         <v>0</v>
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="BO23" s="0">
-        <v>0.84254930563858077</v>
+        <v>0.95937274393494987</v>
       </c>
       <c r="BP23" s="0">
         <v>0</v>
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="AB24" s="0">
-        <v>0.64717134336259319</v>
+        <v>0.90588965290619883</v>
       </c>
       <c r="AC24" s="0">
         <v>0</v>
@@ -5040,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="BG24" s="0">
-        <v>0.70119395372055582</v>
+        <v>0.70545886995342144</v>
       </c>
       <c r="BH24" s="0">
         <v>0</v>
@@ -5135,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="V25" s="0">
-        <v>0.60106756965159103</v>
+        <v>0.70559958785189791</v>
       </c>
       <c r="W25" s="0">
         <v>0</v>
@@ -5443,7 +5443,7 @@
         <v>0</v>
       </c>
       <c r="BD26" s="0">
-        <v>0.70752441468651628</v>
+        <v>0.72789033889242982</v>
       </c>
       <c r="BE26" s="0">
         <v>0</v>
@@ -5532,7 +5532,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="0">
-        <v>0.51550945754499322</v>
+        <v>0.53683080853973508</v>
       </c>
       <c r="R27" s="0">
         <v>0</v>
@@ -5565,7 +5565,7 @@
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>0.53555640446823238</v>
+        <v>0.93073574131093795</v>
       </c>
       <c r="AC27" s="0">
         <v>0</v>
@@ -5595,7 +5595,7 @@
         <v>0</v>
       </c>
       <c r="AL27" s="0">
-        <v>0.61088781655981661</v>
+        <v>0.96919112088875026</v>
       </c>
       <c r="AM27" s="0">
         <v>0</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="0">
-        <v>0.67000969848667014</v>
+        <v>0.69178780472669832</v>
       </c>
       <c r="N28" s="0">
         <v>0</v>
@@ -6091,7 +6091,7 @@
         <v>0</v>
       </c>
       <c r="BN29" s="0">
-        <v>0.6187212513462057</v>
+        <v>0.9099990999453178</v>
       </c>
       <c r="BO29" s="0">
         <v>0</v>
@@ -6129,7 +6129,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="0">
-        <v>0.93668066661676574</v>
+        <v>0.96311546545259374</v>
       </c>
       <c r="K30" s="0">
         <v>0</v>
@@ -6282,7 +6282,7 @@
         <v>0</v>
       </c>
       <c r="BI30" s="0">
-        <v>0.70188681877464543</v>
+        <v>0.82165025811708059</v>
       </c>
       <c r="BJ30" s="0">
         <v>0</v>
@@ -6464,7 +6464,7 @@
         <v>0</v>
       </c>
       <c r="BA31" s="0">
-        <v>0.88115409127641109</v>
+        <v>0.90471848335343208</v>
       </c>
       <c r="BB31" s="0">
         <v>0</v>
@@ -6610,7 +6610,7 @@
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>0.74379592135698014</v>
+        <v>0.78273072518408537</v>
       </c>
       <c r="AH32" s="0">
         <v>0</v>
@@ -6801,7 +6801,7 @@
         <v>0</v>
       </c>
       <c r="AB33" s="0">
-        <v>0.62809559159684691</v>
+        <v>0.81770818937657319</v>
       </c>
       <c r="AC33" s="0">
         <v>0</v>
@@ -6891,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="BF33" s="0">
-        <v>0.70318010381535956</v>
+        <v>0.90665277419235157</v>
       </c>
       <c r="BG33" s="0">
         <v>0</v>
@@ -6974,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="Q34" s="0">
-        <v>0.7119837802062281</v>
+        <v>0.90394755509541203</v>
       </c>
       <c r="R34" s="0">
         <v>0</v>
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="AR34" s="0">
-        <v>0.60966165090595537</v>
+        <v>0.82484121683196743</v>
       </c>
       <c r="AS34" s="0">
         <v>0</v>
@@ -7347,7 +7347,7 @@
         <v>0</v>
       </c>
       <c r="D36" s="0">
-        <v>0.6663018155111109</v>
+        <v>0.93707519355146207</v>
       </c>
       <c r="E36" s="0">
         <v>0</v>
@@ -7524,7 +7524,7 @@
         <v>0</v>
       </c>
       <c r="BK36" s="0">
-        <v>0.58390092731525889</v>
+        <v>0.65452722117628337</v>
       </c>
       <c r="BL36" s="0">
         <v>0</v>
@@ -7685,7 +7685,7 @@
         <v>0</v>
       </c>
       <c r="AV37" s="0">
-        <v>0.57807108291649967</v>
+        <v>0.83050489640962621</v>
       </c>
       <c r="AW37" s="0">
         <v>0</v>
@@ -7742,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="BO37" s="0">
-        <v>0.67337624248686812</v>
+        <v>0.78472427900911845</v>
       </c>
       <c r="BP37" s="0">
         <v>0</v>
@@ -7765,7 +7765,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="0">
-        <v>0.69481190029474327</v>
+        <v>0.97550060328032973</v>
       </c>
       <c r="G38" s="0">
         <v>0</v>
@@ -7834,7 +7834,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="0">
-        <v>0.67938146209378869</v>
+        <v>0.72101874531281118</v>
       </c>
       <c r="AD38" s="0">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>0</v>
       </c>
       <c r="AH39" s="0">
-        <v>0.74960101701427062</v>
+        <v>0.9077990310215891</v>
       </c>
       <c r="AI39" s="0">
         <v>0</v>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="AL39" s="0">
-        <v>0.76686685931804799</v>
+        <v>0.95690874103580592</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
@@ -8085,7 +8085,7 @@
         <v>0</v>
       </c>
       <c r="AR39" s="0">
-        <v>0.52076281730265594</v>
+        <v>0.79251655120820552</v>
       </c>
       <c r="AS39" s="0">
         <v>0</v>
@@ -8207,7 +8207,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="0">
-        <v>0.63876942062012887</v>
+        <v>0.76734553021816376</v>
       </c>
       <c r="Q40" s="0">
         <v>0</v>
@@ -8407,10 +8407,10 @@
         <v>0</v>
       </c>
       <c r="N41" s="0">
-        <v>0.59359815677875782</v>
+        <v>0.83166266072077755</v>
       </c>
       <c r="O41" s="0">
-        <v>0.57996019086225137</v>
+        <v>0.59416983888959729</v>
       </c>
       <c r="P41" s="0">
         <v>0</v>
@@ -8470,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="AI41" s="0">
-        <v>0.80568701215886296</v>
+        <v>0.81132741509560713</v>
       </c>
       <c r="AJ41" s="0">
         <v>0</v>
@@ -8622,7 +8622,7 @@
         <v>0</v>
       </c>
       <c r="Q42" s="0">
-        <v>0.50782958519762822</v>
+        <v>0.56940644676816332</v>
       </c>
       <c r="R42" s="0">
         <v>0</v>
@@ -8634,7 +8634,7 @@
         <v>0</v>
       </c>
       <c r="U42" s="0">
-        <v>0.72096150013550431</v>
+        <v>0.90619916101754394</v>
       </c>
       <c r="V42" s="0">
         <v>0</v>
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>0.74323118454472836</v>
+        <v>0.80814520187058148</v>
       </c>
       <c r="AO42" s="0">
         <v>0</v>
@@ -8721,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="AX42" s="0">
-        <v>0.62525881721876164</v>
+        <v>0.93246906708508903</v>
       </c>
       <c r="AY42" s="0">
         <v>0</v>
@@ -8873,7 +8873,7 @@
         <v>0</v>
       </c>
       <c r="AF43" s="0">
-        <v>0.70503567677745638</v>
+        <v>0.76909905494894071</v>
       </c>
       <c r="AG43" s="0">
         <v>0</v>
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>0.59065690781433366</v>
+        <v>0.67203540174082388</v>
       </c>
       <c r="AS43" s="0">
         <v>0</v>
@@ -8998,7 +8998,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="0">
-        <v>0.6411270624347275</v>
+        <v>0.84110162148413192</v>
       </c>
       <c r="F44" s="0">
         <v>0</v>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="AE44" s="0">
-        <v>0.62846236779138587</v>
+        <v>0.68015304666942222</v>
       </c>
       <c r="AF44" s="0">
         <v>0</v>
@@ -9201,7 +9201,7 @@
         <v>0.7251791499238196</v>
       </c>
       <c r="D45" s="0">
-        <v>0.52716967238630663</v>
+        <v>0.72364861745959186</v>
       </c>
       <c r="E45" s="0">
         <v>0</v>
@@ -9351,7 +9351,7 @@
         <v>0</v>
       </c>
       <c r="BB45" s="0">
-        <v>0.90367735019017403</v>
+        <v>0.93108023689540387</v>
       </c>
       <c r="BC45" s="0">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="AB46" s="0">
-        <v>0.56909506164356038</v>
+        <v>0.60765532548727719</v>
       </c>
       <c r="AC46" s="0">
         <v>0</v>
@@ -9587,7 +9587,7 @@
         <v>0</v>
       </c>
       <c r="BL46" s="0">
-        <v>0.66143277569625469</v>
+        <v>0.89966614436068693</v>
       </c>
       <c r="BM46" s="0">
         <v>0</v>
@@ -9599,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="BP46" s="0">
-        <v>0.53237034984728804</v>
+        <v>0.60095980290582651</v>
       </c>
     </row>
     <row r="47">
@@ -9670,7 +9670,7 @@
         <v>0</v>
       </c>
       <c r="W47" s="0">
-        <v>0.76944214732861149</v>
+        <v>0.86147299450892656</v>
       </c>
       <c r="X47" s="0">
         <v>0</v>
@@ -9739,13 +9739,13 @@
         <v>0</v>
       </c>
       <c r="AT47" s="0">
-        <v>0.7406961736238149</v>
+        <v>0.81524607691360962</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>0.79568440529481621</v>
+        <v>0.97028346243286379</v>
       </c>
       <c r="AW47" s="0">
         <v>0</v>
@@ -9775,10 +9775,10 @@
         <v>0</v>
       </c>
       <c r="BF47" s="0">
-        <v>0.52865234670265115</v>
+        <v>0.55685479638284008</v>
       </c>
       <c r="BG47" s="0">
-        <v>0.7816082908897557</v>
+        <v>0.93032234663834967</v>
       </c>
       <c r="BH47" s="0">
         <v>0</v>
@@ -9819,7 +9819,7 @@
         <v>0</v>
       </c>
       <c r="D48" s="0">
-        <v>0.88011121614280885</v>
+        <v>0.90965971526289602</v>
       </c>
       <c r="E48" s="0">
         <v>0</v>
@@ -9909,7 +9909,7 @@
         <v>0</v>
       </c>
       <c r="AH48" s="0">
-        <v>0.65178968118110914</v>
+        <v>0.70202691853135513</v>
       </c>
       <c r="AI48" s="0">
         <v>0</v>
@@ -10002,7 +10002,7 @@
         <v>0</v>
       </c>
       <c r="BM48" s="0">
-        <v>0.66851124072415335</v>
+        <v>0.74025271452084285</v>
       </c>
       <c r="BN48" s="0">
         <v>0.91973304504114206</v>
@@ -10025,7 +10025,7 @@
         <v>0</v>
       </c>
       <c r="D49" s="0">
-        <v>0.67487622513494161</v>
+        <v>0.83431418107531896</v>
       </c>
       <c r="E49" s="0">
         <v>0</v>
@@ -10166,7 +10166,7 @@
         <v>0</v>
       </c>
       <c r="AY49" s="0">
-        <v>0.88053960399275466</v>
+        <v>0.88990321827645724</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>0.81921122600549101</v>
+        <v>0.86840660098346123</v>
       </c>
       <c r="AZ50" s="0">
         <v>0</v>
@@ -10527,7 +10527,7 @@
         <v>0</v>
       </c>
       <c r="AH51" s="0">
-        <v>0.61072636923865775</v>
+        <v>0.73982469301551723</v>
       </c>
       <c r="AI51" s="0">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="BK52" s="0">
-        <v>0.58664556601272633</v>
+        <v>0.60209306375486704</v>
       </c>
       <c r="BL52" s="0">
         <v>0</v>
@@ -10864,7 +10864,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="0">
-        <v>0.50383211574613262</v>
+        <v>0.62792833840542839</v>
       </c>
       <c r="J53" s="0">
         <v>0</v>
@@ -10915,13 +10915,13 @@
         <v>0</v>
       </c>
       <c r="Z53" s="0">
-        <v>0.67552056937998772</v>
+        <v>0.89216678358433565</v>
       </c>
       <c r="AA53" s="0">
         <v>0</v>
       </c>
       <c r="AB53" s="0">
-        <v>0.77610038987989916</v>
+        <v>0.93676942111862682</v>
       </c>
       <c r="AC53" s="0">
         <v>0</v>
@@ -11011,7 +11011,7 @@
         <v>0</v>
       </c>
       <c r="BF53" s="0">
-        <v>0.90838218294790862</v>
+        <v>0.96750833346842913</v>
       </c>
       <c r="BG53" s="0">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>0</v>
       </c>
       <c r="BG54" s="0">
-        <v>0.53412470642459353</v>
+        <v>0.92877938856008668</v>
       </c>
       <c r="BH54" s="0">
         <v>0</v>
@@ -11336,7 +11336,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="0">
-        <v>0.60266816121497535</v>
+        <v>0.68788100557972975</v>
       </c>
       <c r="AD55" s="0">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="AR55" s="0">
-        <v>0.63261777516664841</v>
+        <v>0.7087014489485024</v>
       </c>
       <c r="AS55" s="0">
         <v>0</v>
@@ -11432,7 +11432,7 @@
         <v>0</v>
       </c>
       <c r="BI55" s="0">
-        <v>0.56364916325602421</v>
+        <v>0.95165872094936432</v>
       </c>
       <c r="BJ55" s="0">
         <v>0</v>
@@ -11530,7 +11530,7 @@
         <v>0</v>
       </c>
       <c r="Y56" s="0">
-        <v>0.82354264111456255</v>
+        <v>0.82525102572713993</v>
       </c>
       <c r="Z56" s="0">
         <v>0.72789033889242982</v>
@@ -11572,7 +11572,7 @@
         <v>0</v>
       </c>
       <c r="AM56" s="0">
-        <v>0.59848582936020378</v>
+        <v>0.6477256551130921</v>
       </c>
       <c r="AN56" s="0">
         <v>0</v>
@@ -11838,7 +11838,7 @@
         <v>0</v>
       </c>
       <c r="BG57" s="0">
-        <v>0.81247629512814534</v>
+        <v>0.96584227388329502</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11897,7 +11897,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="0">
-        <v>0.68185251858567431</v>
+        <v>0.94228433802979339</v>
       </c>
       <c r="K58" s="0">
         <v>0</v>
@@ -12184,7 +12184,7 @@
         <v>0</v>
       </c>
       <c r="AK59" s="0">
-        <v>0.80005652816571526</v>
+        <v>0.8111232093822861</v>
       </c>
       <c r="AL59" s="0">
         <v>0</v>
@@ -12229,7 +12229,7 @@
         <v>0</v>
       </c>
       <c r="AZ59" s="0">
-        <v>0.78717488674707048</v>
+        <v>0.9018340253940349</v>
       </c>
       <c r="BA59" s="0">
         <v>0</v>
@@ -12414,7 +12414,7 @@
         <v>0</v>
       </c>
       <c r="AS60" s="0">
-        <v>0.64567612475070935</v>
+        <v>0.85476846291889452</v>
       </c>
       <c r="AT60" s="0">
         <v>0</v>
@@ -12471,7 +12471,7 @@
         <v>0</v>
       </c>
       <c r="BL60" s="0">
-        <v>0.89539701834271468</v>
+        <v>0.91443443345594821</v>
       </c>
       <c r="BM60" s="0">
         <v>0</v>
@@ -12506,7 +12506,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="0">
-        <v>0.56529770487395148</v>
+        <v>0.5957152641458745</v>
       </c>
       <c r="H61" s="0">
         <v>0</v>
@@ -12662,7 +12662,7 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>0.67961077405048664</v>
+        <v>0.74696125661708823</v>
       </c>
       <c r="BH61" s="0">
         <v>0</v>
@@ -12677,7 +12677,7 @@
         <v>0.91854360165553506</v>
       </c>
       <c r="BL61" s="0">
-        <v>0.77850398464584125</v>
+        <v>0.94762779053566315</v>
       </c>
       <c r="BM61" s="0">
         <v>0</v>
@@ -12697,7 +12697,7 @@
         <v>0</v>
       </c>
       <c r="B62" s="0">
-        <v>0.54556769096567681</v>
+        <v>0.80557186775306744</v>
       </c>
       <c r="C62" s="0">
         <v>0</v>
@@ -12736,10 +12736,10 @@
         <v>0</v>
       </c>
       <c r="O62" s="0">
-        <v>0.65502408187741579</v>
+        <v>0.69101706406866237</v>
       </c>
       <c r="P62" s="0">
-        <v>0.55225711545025291</v>
+        <v>0.81595119405654626</v>
       </c>
       <c r="Q62" s="0">
         <v>0</v>
@@ -12951,7 +12951,7 @@
         <v>0</v>
       </c>
       <c r="R63" s="0">
-        <v>0.66394269826799035</v>
+        <v>0.68979336601706875</v>
       </c>
       <c r="S63" s="0">
         <v>0</v>
@@ -13008,7 +13008,7 @@
         <v>0.65452722117628337</v>
       </c>
       <c r="AK63" s="0">
-        <v>0.60107456085855815</v>
+        <v>0.8529284186576076</v>
       </c>
       <c r="AL63" s="0">
         <v>0</v>
@@ -13068,7 +13068,7 @@
         <v>0</v>
       </c>
       <c r="BE63" s="0">
-        <v>0.52320503109998828</v>
+        <v>0.78772977222881768</v>
       </c>
       <c r="BF63" s="0">
         <v>0</v>
@@ -13080,10 +13080,10 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>0.74369052210920239</v>
+        <v>0.91854360165553506</v>
       </c>
       <c r="BJ63" s="0">
-        <v>0.74678102745908093</v>
+        <v>0.92199262919999758</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
@@ -13098,7 +13098,7 @@
         <v>0</v>
       </c>
       <c r="BO63" s="0">
-        <v>0.50777517958253027</v>
+        <v>0.50889840258806351</v>
       </c>
       <c r="BP63" s="0">
         <v>0</v>
@@ -13109,7 +13109,7 @@
         <v>0</v>
       </c>
       <c r="B64" s="0">
-        <v>0.81302775847430997</v>
+        <v>0.83431931677381299</v>
       </c>
       <c r="C64" s="0">
         <v>0</v>
@@ -13501,7 +13501,7 @@
         <v>0</v>
       </c>
       <c r="BL65" s="0">
-        <v>0.64324954998696393</v>
+        <v>0.90057468469870672</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="BO65" s="0">
-        <v>0.61092036598588484</v>
+        <v>0.72047411346250301</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13521,7 +13521,7 @@
         <v>0</v>
       </c>
       <c r="B66" s="0">
-        <v>0.69750477923781062</v>
+        <v>0.85040638356827092</v>
       </c>
       <c r="C66" s="0">
         <v>0</v>
@@ -13590,7 +13590,7 @@
         <v>0</v>
       </c>
       <c r="Y66" s="0">
-        <v>0.52955820025354117</v>
+        <v>0.71470999761836507</v>
       </c>
       <c r="Z66" s="0">
         <v>0</v>
@@ -13659,7 +13659,7 @@
         <v>0</v>
       </c>
       <c r="AV66" s="0">
-        <v>0.57225583418224246</v>
+        <v>0.91973304504114206</v>
       </c>
       <c r="AW66" s="0">
         <v>0</v>
@@ -13820,7 +13820,7 @@
         <v>0</v>
       </c>
       <c r="AG67" s="0">
-        <v>0.78478300269488777</v>
+        <v>0.8182855878870321</v>
       </c>
       <c r="AH67" s="0">
         <v>0</v>
@@ -13987,7 +13987,7 @@
         <v>0.70293921248844393</v>
       </c>
       <c r="T68" s="0">
-        <v>0.57593337558254576</v>
+        <v>0.68193074152656896</v>
       </c>
       <c r="U68" s="0">
         <v>0</v>
@@ -14128,7 +14128,7 @@
         <v>0</v>
       </c>
       <c r="BO68" s="0">
-        <v>0.89557069816822821</v>
+        <v>0.97074725545670493</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>
